--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I860"/>
+  <dimension ref="A1:I861"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30526,6 +30526,41 @@
         <v>84500</v>
       </c>
     </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E861" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F861" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G861" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H861" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I861" t="n">
+        <v>115000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I861"/>
+  <dimension ref="A1:I862"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30561,6 +30561,41 @@
         <v>115000</v>
       </c>
     </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E862" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F862" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G862" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H862" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I862" t="n">
+        <v>45700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I862"/>
+  <dimension ref="A1:I863"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30596,6 +30596,41 @@
         <v>45700</v>
       </c>
     </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E863" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F863" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G863" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H863" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I863" t="n">
+        <v>63000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I863"/>
+  <dimension ref="A1:I864"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30631,6 +30631,41 @@
         <v>63000</v>
       </c>
     </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E864" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F864" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G864" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H864" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I864" t="n">
+        <v>187400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I864"/>
+  <dimension ref="A1:I865"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30666,6 +30666,41 @@
         <v>187400</v>
       </c>
     </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E865" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F865" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G865" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H865" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I865" t="n">
+        <v>115000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I865"/>
+  <dimension ref="A1:I866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30701,6 +30701,41 @@
         <v>115000</v>
       </c>
     </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E866" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F866" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G866" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H866" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I866" t="n">
+        <v>36500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I866"/>
+  <dimension ref="A1:I867"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30736,6 +30736,41 @@
         <v>36500</v>
       </c>
     </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E867" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F867" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G867" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H867" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I867" t="n">
+        <v>52000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I867"/>
+  <dimension ref="A1:I868"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30771,6 +30771,41 @@
         <v>52000</v>
       </c>
     </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E868" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F868" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G868" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H868" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I868" t="n">
+        <v>98900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I868"/>
+  <dimension ref="A1:I869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30806,6 +30806,41 @@
         <v>98900</v>
       </c>
     </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E869" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F869" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G869" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H869" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I869" t="n">
+        <v>354100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I869"/>
+  <dimension ref="A1:I870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30841,6 +30841,41 @@
         <v>354100</v>
       </c>
     </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E870" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F870" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G870" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H870" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I870" t="n">
+        <v>366700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I870"/>
+  <dimension ref="A1:I871"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30876,6 +30876,41 @@
         <v>366700</v>
       </c>
     </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E871" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F871" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G871" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H871" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I871" t="n">
+        <v>195000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I871"/>
+  <dimension ref="A1:I872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30911,6 +30911,41 @@
         <v>195000</v>
       </c>
     </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E872" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F872" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G872" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H872" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I872" t="n">
+        <v>73300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I872"/>
+  <dimension ref="A1:I874"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30946,6 +30946,76 @@
         <v>73300</v>
       </c>
     </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E873" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F873" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G873" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H873" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I873" t="n">
+        <v>46400</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E874" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F874" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G874" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H874" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I874" t="n">
+        <v>531600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I874"/>
+  <dimension ref="A1:I876"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31016,6 +31016,76 @@
         <v>531600</v>
       </c>
     </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E875" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F875" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G875" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H875" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I875" t="n">
+        <v>77900</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E876" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F876" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G876" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H876" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I876" t="n">
+        <v>161000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I876"/>
+  <dimension ref="A1:I877"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31086,6 +31086,41 @@
         <v>161000</v>
       </c>
     </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E877" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F877" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G877" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H877" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I877" t="n">
+        <v>93100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I877"/>
+  <dimension ref="A1:I878"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31121,6 +31121,41 @@
         <v>93100</v>
       </c>
     </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E878" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F878" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G878" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H878" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I878" t="n">
+        <v>13400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I878"/>
+  <dimension ref="A1:I879"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31156,6 +31156,41 @@
         <v>13400</v>
       </c>
     </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E879" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F879" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G879" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H879" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I879" t="n">
+        <v>219600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I879"/>
+  <dimension ref="A1:I880"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31191,6 +31191,41 @@
         <v>219600</v>
       </c>
     </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E880" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F880" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G880" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H880" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I880" t="n">
+        <v>244900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I880"/>
+  <dimension ref="A1:I882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31226,6 +31226,76 @@
         <v>244900</v>
       </c>
     </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E881" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F881" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G881" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H881" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I881" t="n">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E882" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F882" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G882" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H882" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I882" t="n">
+        <v>251200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I882"/>
+  <dimension ref="A1:I883"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31296,6 +31296,41 @@
         <v>251200</v>
       </c>
     </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E883" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F883" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G883" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H883" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I883" t="n">
+        <v>140100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I883"/>
+  <dimension ref="A1:I884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31331,6 +31331,41 @@
         <v>140100</v>
       </c>
     </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E884" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F884" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G884" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H884" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I884" t="n">
+        <v>767200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I884"/>
+  <dimension ref="A1:I893"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28811,11 +28811,11 @@
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -28829,28 +28829,28 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>0.555</v>
+        <v>0.515</v>
       </c>
       <c r="F812" t="n">
-        <v>0.555</v>
+        <v>0.515</v>
       </c>
       <c r="G812" t="n">
-        <v>0.54</v>
+        <v>0.515</v>
       </c>
       <c r="H812" t="n">
-        <v>0.545</v>
+        <v>0.515</v>
       </c>
       <c r="I812" t="n">
-        <v>972800</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -28864,28 +28864,28 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="F813" t="n">
-        <v>0.545</v>
+        <v>0.52</v>
       </c>
       <c r="G813" t="n">
-        <v>0.535</v>
+        <v>0.51</v>
       </c>
       <c r="H813" t="n">
-        <v>0.545</v>
+        <v>0.515</v>
       </c>
       <c r="I813" t="n">
-        <v>214700</v>
+        <v>125600</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -28899,28 +28899,28 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>0.545</v>
+        <v>0.505</v>
       </c>
       <c r="F814" t="n">
-        <v>0.545</v>
+        <v>0.515</v>
       </c>
       <c r="G814" t="n">
-        <v>0.535</v>
+        <v>0.495</v>
       </c>
       <c r="H814" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="I814" t="n">
-        <v>453000</v>
+        <v>2025000</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -28934,28 +28934,28 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>0.535</v>
+        <v>0.51</v>
       </c>
       <c r="F815" t="n">
         <v>0.535</v>
       </c>
       <c r="G815" t="n">
-        <v>0.525</v>
+        <v>0.51</v>
       </c>
       <c r="H815" t="n">
         <v>0.53</v>
       </c>
       <c r="I815" t="n">
-        <v>152200</v>
+        <v>927200</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -28969,28 +28969,28 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>0.525</v>
+        <v>0.535</v>
       </c>
       <c r="F816" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G816" t="n">
         <v>0.53</v>
       </c>
-      <c r="G816" t="n">
-        <v>0.525</v>
-      </c>
       <c r="H816" t="n">
-        <v>0.525</v>
+        <v>0.55</v>
       </c>
       <c r="I816" t="n">
-        <v>334800</v>
+        <v>2002800</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -29004,28 +29004,28 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>0.525</v>
+        <v>0.555</v>
       </c>
       <c r="F817" t="n">
-        <v>0.535</v>
+        <v>0.575</v>
       </c>
       <c r="G817" t="n">
-        <v>0.525</v>
+        <v>0.555</v>
       </c>
       <c r="H817" t="n">
-        <v>0.53</v>
+        <v>0.555</v>
       </c>
       <c r="I817" t="n">
-        <v>566400</v>
+        <v>1986800</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -29039,28 +29039,28 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F818" t="n">
-        <v>0.545</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G818" t="n">
-        <v>0.53</v>
+        <v>0.535</v>
       </c>
       <c r="H818" t="n">
         <v>0.54</v>
       </c>
       <c r="I818" t="n">
-        <v>1668000</v>
+        <v>457800</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -29077,25 +29077,25 @@
         <v>0.54</v>
       </c>
       <c r="F819" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G819" t="n">
         <v>0.54</v>
       </c>
-      <c r="G819" t="n">
-        <v>0.525</v>
-      </c>
       <c r="H819" t="n">
-        <v>0.535</v>
+        <v>0.54</v>
       </c>
       <c r="I819" t="n">
-        <v>377800</v>
+        <v>213100</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -29109,28 +29109,28 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>0.53</v>
+        <v>0.535</v>
       </c>
       <c r="F820" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G820" t="n">
         <v>0.535</v>
       </c>
-      <c r="G820" t="n">
-        <v>0.53</v>
-      </c>
       <c r="H820" t="n">
-        <v>0.535</v>
+        <v>0.555</v>
       </c>
       <c r="I820" t="n">
-        <v>200000</v>
+        <v>658000</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -29144,28 +29144,28 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>0.525</v>
+        <v>0.555</v>
       </c>
       <c r="F821" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G821" t="n">
         <v>0.54</v>
       </c>
-      <c r="G821" t="n">
-        <v>0.52</v>
-      </c>
       <c r="H821" t="n">
-        <v>0.53</v>
+        <v>0.545</v>
       </c>
       <c r="I821" t="n">
-        <v>451800</v>
+        <v>972800</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -29179,28 +29179,28 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="F822" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G822" t="n">
         <v>0.535</v>
       </c>
-      <c r="G822" t="n">
-        <v>0.53</v>
-      </c>
       <c r="H822" t="n">
-        <v>0.535</v>
+        <v>0.545</v>
       </c>
       <c r="I822" t="n">
-        <v>474300</v>
+        <v>214700</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -29214,28 +29214,28 @@
         </is>
       </c>
       <c r="E823" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F823" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G823" t="n">
         <v>0.535</v>
       </c>
-      <c r="F823" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="G823" t="n">
-        <v>0.525</v>
-      </c>
       <c r="H823" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="I823" t="n">
-        <v>252600</v>
+        <v>453000</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -29249,28 +29249,28 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>0.525</v>
+        <v>0.535</v>
       </c>
       <c r="F824" t="n">
-        <v>0.54</v>
+        <v>0.535</v>
       </c>
       <c r="G824" t="n">
         <v>0.525</v>
       </c>
       <c r="H824" t="n">
-        <v>0.535</v>
+        <v>0.53</v>
       </c>
       <c r="I824" t="n">
-        <v>1096000</v>
+        <v>152200</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -29284,28 +29284,28 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>0.535</v>
+        <v>0.525</v>
       </c>
       <c r="F825" t="n">
-        <v>0.535</v>
+        <v>0.53</v>
       </c>
       <c r="G825" t="n">
-        <v>0.52</v>
+        <v>0.525</v>
       </c>
       <c r="H825" t="n">
-        <v>0.52</v>
+        <v>0.525</v>
       </c>
       <c r="I825" t="n">
-        <v>663400</v>
+        <v>334800</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -29319,28 +29319,28 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>0.52</v>
+        <v>0.525</v>
       </c>
       <c r="F826" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G826" t="n">
         <v>0.525</v>
       </c>
-      <c r="G826" t="n">
-        <v>0.52</v>
-      </c>
       <c r="H826" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="I826" t="n">
-        <v>384600</v>
+        <v>566400</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -29354,28 +29354,28 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>0.515</v>
+        <v>0.53</v>
       </c>
       <c r="F827" t="n">
-        <v>0.525</v>
+        <v>0.545</v>
       </c>
       <c r="G827" t="n">
-        <v>0.515</v>
+        <v>0.53</v>
       </c>
       <c r="H827" t="n">
-        <v>0.525</v>
+        <v>0.54</v>
       </c>
       <c r="I827" t="n">
-        <v>318000</v>
+        <v>1668000</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -29389,28 +29389,28 @@
         </is>
       </c>
       <c r="E828" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F828" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G828" t="n">
         <v>0.525</v>
       </c>
-      <c r="F828" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G828" t="n">
-        <v>0.52</v>
-      </c>
       <c r="H828" t="n">
-        <v>0.53</v>
+        <v>0.535</v>
       </c>
       <c r="I828" t="n">
-        <v>556300</v>
+        <v>377800</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -29427,25 +29427,25 @@
         <v>0.53</v>
       </c>
       <c r="F829" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G829" t="n">
         <v>0.53</v>
       </c>
-      <c r="G829" t="n">
-        <v>0.52</v>
-      </c>
       <c r="H829" t="n">
-        <v>0.53</v>
+        <v>0.535</v>
       </c>
       <c r="I829" t="n">
-        <v>68100</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -29459,28 +29459,28 @@
         </is>
       </c>
       <c r="E830" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F830" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G830" t="n">
         <v>0.52</v>
       </c>
-      <c r="F830" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="G830" t="n">
-        <v>0.515</v>
-      </c>
       <c r="H830" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="I830" t="n">
-        <v>1150700</v>
+        <v>451800</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -29494,28 +29494,28 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="F831" t="n">
-        <v>0.52</v>
+        <v>0.535</v>
       </c>
       <c r="G831" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="H831" t="n">
-        <v>0.51</v>
+        <v>0.535</v>
       </c>
       <c r="I831" t="n">
-        <v>422000</v>
+        <v>474300</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -29529,28 +29529,28 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>0.505</v>
+        <v>0.535</v>
       </c>
       <c r="F832" t="n">
-        <v>0.51</v>
+        <v>0.535</v>
       </c>
       <c r="G832" t="n">
-        <v>0.5</v>
+        <v>0.525</v>
       </c>
       <c r="H832" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="I832" t="n">
-        <v>728000</v>
+        <v>252600</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -29564,28 +29564,28 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>0.51</v>
+        <v>0.525</v>
       </c>
       <c r="F833" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="G833" t="n">
-        <v>0.505</v>
+        <v>0.525</v>
       </c>
       <c r="H833" t="n">
-        <v>0.505</v>
+        <v>0.535</v>
       </c>
       <c r="I833" t="n">
-        <v>231600</v>
+        <v>1096000</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -29599,28 +29599,28 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>0.505</v>
+        <v>0.535</v>
       </c>
       <c r="F834" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G834" t="n">
         <v>0.52</v>
       </c>
-      <c r="G834" t="n">
-        <v>0.505</v>
-      </c>
       <c r="H834" t="n">
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="I834" t="n">
-        <v>633200</v>
+        <v>663400</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -29637,25 +29637,25 @@
         <v>0.52</v>
       </c>
       <c r="F835" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G835" t="n">
         <v>0.52</v>
       </c>
-      <c r="G835" t="n">
-        <v>0.51</v>
-      </c>
       <c r="H835" t="n">
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="I835" t="n">
-        <v>344900</v>
+        <v>384600</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -29678,19 +29678,19 @@
         <v>0.515</v>
       </c>
       <c r="H836" t="n">
-        <v>0.52</v>
+        <v>0.525</v>
       </c>
       <c r="I836" t="n">
-        <v>344000</v>
+        <v>318000</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -29704,28 +29704,28 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>0.53</v>
+        <v>0.525</v>
       </c>
       <c r="F837" t="n">
         <v>0.53</v>
       </c>
       <c r="G837" t="n">
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="H837" t="n">
-        <v>0.515</v>
+        <v>0.53</v>
       </c>
       <c r="I837" t="n">
-        <v>140200</v>
+        <v>556300</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -29739,28 +29739,28 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="F838" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="G838" t="n">
-        <v>0.495</v>
+        <v>0.52</v>
       </c>
       <c r="H838" t="n">
-        <v>0.505</v>
+        <v>0.53</v>
       </c>
       <c r="I838" t="n">
-        <v>366000</v>
+        <v>68100</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -29774,28 +29774,28 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="F839" t="n">
-        <v>0.51</v>
+        <v>0.525</v>
       </c>
       <c r="G839" t="n">
-        <v>0.505</v>
+        <v>0.515</v>
       </c>
       <c r="H839" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="I839" t="n">
-        <v>53500</v>
+        <v>1150700</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -29809,28 +29809,28 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="F840" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G840" t="n">
         <v>0.51</v>
-      </c>
-      <c r="G840" t="n">
-        <v>0.5</v>
       </c>
       <c r="H840" t="n">
         <v>0.51</v>
       </c>
       <c r="I840" t="n">
-        <v>91500</v>
+        <v>422000</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -29844,28 +29844,28 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>0.51</v>
+        <v>0.505</v>
       </c>
       <c r="F841" t="n">
         <v>0.51</v>
       </c>
       <c r="G841" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H841" t="n">
         <v>0.51</v>
       </c>
       <c r="I841" t="n">
-        <v>35000</v>
+        <v>728000</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -29879,10 +29879,10 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>0.505</v>
+        <v>0.51</v>
       </c>
       <c r="F842" t="n">
-        <v>0.505</v>
+        <v>0.51</v>
       </c>
       <c r="G842" t="n">
         <v>0.505</v>
@@ -29891,16 +29891,16 @@
         <v>0.505</v>
       </c>
       <c r="I842" t="n">
-        <v>24400</v>
+        <v>231600</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -29917,7 +29917,7 @@
         <v>0.505</v>
       </c>
       <c r="F843" t="n">
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="G843" t="n">
         <v>0.505</v>
@@ -29926,16 +29926,16 @@
         <v>0.515</v>
       </c>
       <c r="I843" t="n">
-        <v>33400</v>
+        <v>633200</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -29949,10 +29949,10 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="F844" t="n">
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="G844" t="n">
         <v>0.51</v>
@@ -29961,16 +29961,16 @@
         <v>0.515</v>
       </c>
       <c r="I844" t="n">
-        <v>105500</v>
+        <v>344900</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -29984,28 +29984,28 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>0.51</v>
+        <v>0.515</v>
       </c>
       <c r="F845" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G845" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H845" t="n">
         <v>0.52</v>
       </c>
-      <c r="G845" t="n">
-        <v>0.505</v>
-      </c>
-      <c r="H845" t="n">
-        <v>0.505</v>
-      </c>
       <c r="I845" t="n">
-        <v>289200</v>
+        <v>344000</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -30019,28 +30019,28 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="F846" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="G846" t="n">
-        <v>0.505</v>
+        <v>0.515</v>
       </c>
       <c r="H846" t="n">
-        <v>0.52</v>
+        <v>0.515</v>
       </c>
       <c r="I846" t="n">
-        <v>323200</v>
+        <v>140200</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -30057,25 +30057,25 @@
         <v>0.51</v>
       </c>
       <c r="F847" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="G847" t="n">
-        <v>0.5</v>
+        <v>0.495</v>
       </c>
       <c r="H847" t="n">
-        <v>0.52</v>
+        <v>0.505</v>
       </c>
       <c r="I847" t="n">
-        <v>195000</v>
+        <v>366000</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -30089,30 +30089,28 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="F848" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="G848" t="n">
-        <v>0.52</v>
+        <v>0.505</v>
       </c>
       <c r="H848" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="I848" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.51</v>
+      </c>
+      <c r="I848" t="n">
+        <v>53500</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -30126,28 +30124,28 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>0.495</v>
+        <v>0.5</v>
       </c>
       <c r="F849" t="n">
         <v>0.51</v>
       </c>
       <c r="G849" t="n">
-        <v>0.495</v>
+        <v>0.5</v>
       </c>
       <c r="H849" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="I849" t="n">
-        <v>63400</v>
+        <v>91500</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -30161,28 +30159,28 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>0.495</v>
+        <v>0.51</v>
       </c>
       <c r="F850" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="G850" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="H850" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="I850" t="n">
-        <v>124600</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -30196,28 +30194,28 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>0.5</v>
+        <v>0.505</v>
       </c>
       <c r="F851" t="n">
-        <v>0.5</v>
+        <v>0.505</v>
       </c>
       <c r="G851" t="n">
-        <v>0.48</v>
+        <v>0.505</v>
       </c>
       <c r="H851" t="n">
-        <v>0.495</v>
+        <v>0.505</v>
       </c>
       <c r="I851" t="n">
-        <v>330100</v>
+        <v>24400</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -30231,28 +30229,28 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>0.495</v>
+        <v>0.505</v>
       </c>
       <c r="F852" t="n">
-        <v>0.495</v>
+        <v>0.515</v>
       </c>
       <c r="G852" t="n">
-        <v>0.48</v>
+        <v>0.505</v>
       </c>
       <c r="H852" t="n">
-        <v>0.495</v>
+        <v>0.515</v>
       </c>
       <c r="I852" t="n">
-        <v>78000</v>
+        <v>33400</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -30266,28 +30264,28 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>0.485</v>
+        <v>0.51</v>
       </c>
       <c r="F853" t="n">
-        <v>0.495</v>
+        <v>0.515</v>
       </c>
       <c r="G853" t="n">
-        <v>0.485</v>
+        <v>0.51</v>
       </c>
       <c r="H853" t="n">
-        <v>0.495</v>
+        <v>0.515</v>
       </c>
       <c r="I853" t="n">
-        <v>11000</v>
+        <v>105500</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -30301,28 +30299,28 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="F854" t="n">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="G854" t="n">
-        <v>0.455</v>
+        <v>0.505</v>
       </c>
       <c r="H854" t="n">
-        <v>0.47</v>
+        <v>0.505</v>
       </c>
       <c r="I854" t="n">
-        <v>198100</v>
+        <v>289200</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -30336,28 +30334,28 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>0.465</v>
+        <v>0.51</v>
       </c>
       <c r="F855" t="n">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="G855" t="n">
-        <v>0.455</v>
+        <v>0.505</v>
       </c>
       <c r="H855" t="n">
-        <v>0.46</v>
+        <v>0.52</v>
       </c>
       <c r="I855" t="n">
-        <v>354200</v>
+        <v>323200</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -30371,28 +30369,28 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="F856" t="n">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="G856" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="H856" t="n">
-        <v>0.465</v>
+        <v>0.52</v>
       </c>
       <c r="I856" t="n">
-        <v>307500</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -30406,28 +30404,30 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>0.465</v>
+        <v>0.52</v>
       </c>
       <c r="F857" t="n">
-        <v>0.475</v>
+        <v>0.52</v>
       </c>
       <c r="G857" t="n">
-        <v>0.465</v>
+        <v>0.52</v>
       </c>
       <c r="H857" t="n">
-        <v>0.465</v>
-      </c>
-      <c r="I857" t="n">
-        <v>70900</v>
+        <v>0.52</v>
+      </c>
+      <c r="I857" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -30441,28 +30441,28 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>0.465</v>
+        <v>0.495</v>
       </c>
       <c r="F858" t="n">
-        <v>0.475</v>
+        <v>0.51</v>
       </c>
       <c r="G858" t="n">
-        <v>0.465</v>
+        <v>0.495</v>
       </c>
       <c r="H858" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="I858" t="n">
-        <v>182000</v>
+        <v>63400</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -30476,28 +30476,28 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>0.47</v>
+        <v>0.495</v>
       </c>
       <c r="F859" t="n">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="G859" t="n">
-        <v>0.465</v>
+        <v>0.49</v>
       </c>
       <c r="H859" t="n">
-        <v>0.465</v>
+        <v>0.5</v>
       </c>
       <c r="I859" t="n">
-        <v>32000</v>
+        <v>124600</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -30511,28 +30511,28 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="F860" t="n">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="G860" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="H860" t="n">
-        <v>0.47</v>
+        <v>0.495</v>
       </c>
       <c r="I860" t="n">
-        <v>84500</v>
+        <v>330100</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -30546,28 +30546,28 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>0.47</v>
+        <v>0.495</v>
       </c>
       <c r="F861" t="n">
-        <v>0.475</v>
+        <v>0.495</v>
       </c>
       <c r="G861" t="n">
-        <v>0.465</v>
+        <v>0.48</v>
       </c>
       <c r="H861" t="n">
-        <v>0.47</v>
+        <v>0.495</v>
       </c>
       <c r="I861" t="n">
-        <v>115000</v>
+        <v>78000</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -30581,28 +30581,28 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>0.47</v>
+        <v>0.485</v>
       </c>
       <c r="F862" t="n">
-        <v>0.48</v>
+        <v>0.495</v>
       </c>
       <c r="G862" t="n">
-        <v>0.47</v>
+        <v>0.485</v>
       </c>
       <c r="H862" t="n">
-        <v>0.48</v>
+        <v>0.495</v>
       </c>
       <c r="I862" t="n">
-        <v>45700</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -30619,25 +30619,25 @@
         <v>0.48</v>
       </c>
       <c r="F863" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="G863" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H863" t="n">
         <v>0.47</v>
       </c>
-      <c r="H863" t="n">
-        <v>0.48</v>
-      </c>
       <c r="I863" t="n">
-        <v>63000</v>
+        <v>198100</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -30651,28 +30651,28 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>0.475</v>
+        <v>0.465</v>
       </c>
       <c r="F864" t="n">
-        <v>0.485</v>
+        <v>0.47</v>
       </c>
       <c r="G864" t="n">
-        <v>0.47</v>
+        <v>0.455</v>
       </c>
       <c r="H864" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="I864" t="n">
-        <v>187400</v>
+        <v>354200</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -30686,28 +30686,28 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>0.475</v>
+        <v>0.46</v>
       </c>
       <c r="F865" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="G865" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="H865" t="n">
-        <v>0.47</v>
+        <v>0.465</v>
       </c>
       <c r="I865" t="n">
-        <v>115000</v>
+        <v>307500</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -30721,28 +30721,28 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>0.48</v>
+        <v>0.465</v>
       </c>
       <c r="F866" t="n">
-        <v>0.48</v>
+        <v>0.475</v>
       </c>
       <c r="G866" t="n">
-        <v>0.47</v>
+        <v>0.465</v>
       </c>
       <c r="H866" t="n">
-        <v>0.475</v>
+        <v>0.465</v>
       </c>
       <c r="I866" t="n">
-        <v>36500</v>
+        <v>70900</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -30756,28 +30756,28 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>0.485</v>
+        <v>0.465</v>
       </c>
       <c r="F867" t="n">
-        <v>0.485</v>
+        <v>0.475</v>
       </c>
       <c r="G867" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H867" t="n">
         <v>0.47</v>
       </c>
-      <c r="H867" t="n">
-        <v>0.485</v>
-      </c>
       <c r="I867" t="n">
-        <v>52000</v>
+        <v>182000</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -30791,28 +30791,28 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="F868" t="n">
-        <v>0.485</v>
+        <v>0.475</v>
       </c>
       <c r="G868" t="n">
-        <v>0.48</v>
+        <v>0.465</v>
       </c>
       <c r="H868" t="n">
-        <v>0.485</v>
+        <v>0.465</v>
       </c>
       <c r="I868" t="n">
-        <v>98900</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -30826,28 +30826,28 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>0.49</v>
+        <v>0.475</v>
       </c>
       <c r="F869" t="n">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="G869" t="n">
-        <v>0.485</v>
+        <v>0.46</v>
       </c>
       <c r="H869" t="n">
-        <v>0.485</v>
+        <v>0.47</v>
       </c>
       <c r="I869" t="n">
-        <v>354100</v>
+        <v>84500</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -30861,28 +30861,28 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="F870" t="n">
-        <v>0.48</v>
+        <v>0.475</v>
       </c>
       <c r="G870" t="n">
-        <v>0.455</v>
+        <v>0.465</v>
       </c>
       <c r="H870" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="I870" t="n">
-        <v>366700</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -30899,25 +30899,25 @@
         <v>0.47</v>
       </c>
       <c r="F871" t="n">
-        <v>0.495</v>
+        <v>0.48</v>
       </c>
       <c r="G871" t="n">
         <v>0.47</v>
       </c>
       <c r="H871" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="I871" t="n">
-        <v>195000</v>
+        <v>45700</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -30931,28 +30931,28 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>0.485</v>
+        <v>0.48</v>
       </c>
       <c r="F872" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="G872" t="n">
-        <v>0.485</v>
+        <v>0.47</v>
       </c>
       <c r="H872" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="I872" t="n">
-        <v>73300</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -30966,28 +30966,28 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="F873" t="n">
-        <v>0.5</v>
+        <v>0.485</v>
       </c>
       <c r="G873" t="n">
         <v>0.47</v>
       </c>
       <c r="H873" t="n">
-        <v>0.485</v>
+        <v>0.48</v>
       </c>
       <c r="I873" t="n">
-        <v>46400</v>
+        <v>187400</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -31001,28 +31001,28 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>0.46</v>
+        <v>0.475</v>
       </c>
       <c r="F874" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G874" t="n">
         <v>0.47</v>
       </c>
-      <c r="G874" t="n">
-        <v>0.44</v>
-      </c>
       <c r="H874" t="n">
-        <v>0.455</v>
+        <v>0.47</v>
       </c>
       <c r="I874" t="n">
-        <v>531600</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -31036,28 +31036,28 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="F875" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="G875" t="n">
-        <v>0.445</v>
+        <v>0.47</v>
       </c>
       <c r="H875" t="n">
-        <v>0.45</v>
+        <v>0.475</v>
       </c>
       <c r="I875" t="n">
-        <v>77900</v>
+        <v>36500</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -31071,28 +31071,28 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>0.45</v>
+        <v>0.485</v>
       </c>
       <c r="F876" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G876" t="n">
         <v>0.47</v>
       </c>
-      <c r="G876" t="n">
-        <v>0.45</v>
-      </c>
       <c r="H876" t="n">
-        <v>0.455</v>
+        <v>0.485</v>
       </c>
       <c r="I876" t="n">
-        <v>161000</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -31106,28 +31106,28 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>0.465</v>
+        <v>0.48</v>
       </c>
       <c r="F877" t="n">
-        <v>0.465</v>
+        <v>0.485</v>
       </c>
       <c r="G877" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="H877" t="n">
-        <v>0.45</v>
+        <v>0.485</v>
       </c>
       <c r="I877" t="n">
-        <v>93100</v>
+        <v>98900</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -31141,28 +31141,28 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="F878" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="G878" t="n">
-        <v>0.455</v>
+        <v>0.485</v>
       </c>
       <c r="H878" t="n">
-        <v>0.465</v>
+        <v>0.485</v>
       </c>
       <c r="I878" t="n">
-        <v>13400</v>
+        <v>354100</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -31176,28 +31176,28 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="F879" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="G879" t="n">
-        <v>0.445</v>
+        <v>0.455</v>
       </c>
       <c r="H879" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="I879" t="n">
-        <v>219600</v>
+        <v>366700</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -31211,28 +31211,28 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="F880" t="n">
-        <v>0.45</v>
+        <v>0.495</v>
       </c>
       <c r="G880" t="n">
-        <v>0.395</v>
+        <v>0.47</v>
       </c>
       <c r="H880" t="n">
-        <v>0.43</v>
+        <v>0.49</v>
       </c>
       <c r="I880" t="n">
-        <v>244900</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -31246,28 +31246,28 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>0.44</v>
+        <v>0.485</v>
       </c>
       <c r="F881" t="n">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="G881" t="n">
-        <v>0.41</v>
+        <v>0.485</v>
       </c>
       <c r="H881" t="n">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="I881" t="n">
-        <v>13600</v>
+        <v>73300</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -31281,28 +31281,28 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="F882" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="G882" t="n">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="H882" t="n">
-        <v>0.44</v>
+        <v>0.485</v>
       </c>
       <c r="I882" t="n">
-        <v>251200</v>
+        <v>46400</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
@@ -31316,53 +31316,368 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>0.405</v>
+        <v>0.46</v>
       </c>
       <c r="F883" t="n">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="G883" t="n">
-        <v>0.405</v>
+        <v>0.44</v>
       </c>
       <c r="H883" t="n">
-        <v>0.425</v>
+        <v>0.455</v>
       </c>
       <c r="I883" t="n">
-        <v>140100</v>
+        <v>531600</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E884" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F884" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G884" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H884" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I884" t="n">
+        <v>77900</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E885" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F885" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G885" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H885" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I885" t="n">
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E886" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F886" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G886" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H886" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I886" t="n">
+        <v>93100</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E887" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F887" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G887" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H887" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I887" t="n">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E888" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F888" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G888" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H888" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I888" t="n">
+        <v>219600</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E889" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F889" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G889" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H889" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I889" t="n">
+        <v>244900</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E890" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F890" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G890" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H890" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I890" t="n">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E891" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F891" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G891" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H891" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I891" t="n">
+        <v>251200</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E892" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F892" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G892" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H892" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I892" t="n">
+        <v>140100</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B884" t="inlineStr">
+      <c r="B893" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C884" t="inlineStr">
-        <is>
-          <t>5276</t>
-        </is>
-      </c>
-      <c r="D884" t="inlineStr">
-        <is>
-          <t>DANCO</t>
-        </is>
-      </c>
-      <c r="E884" t="n">
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E893" t="n">
         <v>0.4</v>
       </c>
-      <c r="F884" t="n">
+      <c r="F893" t="n">
         <v>0.4</v>
       </c>
-      <c r="G884" t="n">
+      <c r="G893" t="n">
         <v>0.34</v>
       </c>
-      <c r="H884" t="n">
+      <c r="H893" t="n">
         <v>0.36</v>
       </c>
-      <c r="I884" t="n">
+      <c r="I893" t="n">
         <v>767200</v>
       </c>
     </row>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I893"/>
+  <dimension ref="A1:I894"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31681,6 +31681,41 @@
         <v>767200</v>
       </c>
     </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E894" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F894" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G894" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H894" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I894" t="n">
+        <v>718700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I894"/>
+  <dimension ref="A1:I895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31716,6 +31716,41 @@
         <v>718700</v>
       </c>
     </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E895" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F895" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G895" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H895" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I895" t="n">
+        <v>413100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I895"/>
+  <dimension ref="A1:I896"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31751,6 +31751,41 @@
         <v>413100</v>
       </c>
     </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E896" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F896" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G896" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H896" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I896" t="n">
+        <v>130200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I896"/>
+  <dimension ref="A1:I897"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31786,6 +31786,41 @@
         <v>130200</v>
       </c>
     </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E897" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F897" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G897" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H897" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I897" t="n">
+        <v>125000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I897"/>
+  <dimension ref="A1:I898"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31821,6 +31821,41 @@
         <v>125000</v>
       </c>
     </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E898" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F898" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G898" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H898" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I898" t="n">
+        <v>478900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I898"/>
+  <dimension ref="A1:I899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31856,6 +31856,41 @@
         <v>478900</v>
       </c>
     </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E899" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F899" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G899" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H899" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I899" t="n">
+        <v>124000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I899"/>
+  <dimension ref="A1:I900"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31891,6 +31891,41 @@
         <v>124000</v>
       </c>
     </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E900" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F900" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G900" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H900" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I900" t="n">
+        <v>65000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I900"/>
+  <dimension ref="A1:I901"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31926,6 +31926,41 @@
         <v>65000</v>
       </c>
     </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E901" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F901" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G901" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H901" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I901" t="n">
+        <v>180700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I901"/>
+  <dimension ref="A1:I902"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31961,6 +31961,41 @@
         <v>180700</v>
       </c>
     </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E902" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F902" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G902" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H902" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I902" t="n">
+        <v>70000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I902"/>
+  <dimension ref="A1:I903"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31996,6 +31996,41 @@
         <v>70000</v>
       </c>
     </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E903" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F903" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G903" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H903" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I903" t="n">
+        <v>72300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I903"/>
+  <dimension ref="A1:I904"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32031,6 +32031,41 @@
         <v>72300</v>
       </c>
     </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E904" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F904" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G904" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H904" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I904" t="n">
+        <v>79100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I904"/>
+  <dimension ref="A1:I905"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32066,6 +32066,41 @@
         <v>79100</v>
       </c>
     </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E905" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F905" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G905" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H905" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I905" t="n">
+        <v>86700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I905"/>
+  <dimension ref="A1:I906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32101,6 +32101,41 @@
         <v>86700</v>
       </c>
     </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E906" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F906" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G906" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H906" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I906" t="n">
+        <v>108500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I906"/>
+  <dimension ref="A1:I907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32136,6 +32136,41 @@
         <v>108500</v>
       </c>
     </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E907" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F907" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G907" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H907" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I907" t="n">
+        <v>154700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I907"/>
+  <dimension ref="A1:I908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32171,6 +32171,41 @@
         <v>154700</v>
       </c>
     </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E908" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F908" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G908" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H908" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I908" t="n">
+        <v>24500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I908"/>
+  <dimension ref="A1:I909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32206,6 +32206,41 @@
         <v>24500</v>
       </c>
     </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E909" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F909" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G909" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H909" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I909" t="n">
+        <v>141600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I909"/>
+  <dimension ref="A1:I910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32241,6 +32241,41 @@
         <v>141600</v>
       </c>
     </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E910" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F910" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G910" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H910" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I910" t="n">
+        <v>61000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I910"/>
+  <dimension ref="A1:I911"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32276,6 +32276,41 @@
         <v>61000</v>
       </c>
     </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E911" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F911" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G911" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H911" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I911" t="n">
+        <v>30500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I911"/>
+  <dimension ref="A1:I912"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32311,6 +32311,41 @@
         <v>30500</v>
       </c>
     </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E912" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F912" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G912" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H912" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I912" t="n">
+        <v>19000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I912"/>
+  <dimension ref="A1:I913"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32346,6 +32346,41 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E913" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F913" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G913" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H913" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I913" t="n">
+        <v>60400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I913"/>
+  <dimension ref="A1:I914"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32381,6 +32381,41 @@
         <v>60400</v>
       </c>
     </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E914" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F914" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G914" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H914" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I914" t="n">
+        <v>5100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I914"/>
+  <dimension ref="A1:I915"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32416,6 +32416,41 @@
         <v>5100</v>
       </c>
     </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E915" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F915" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G915" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H915" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I915" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I915"/>
+  <dimension ref="A1:I916"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32451,6 +32451,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E916" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F916" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G916" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H916" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I916" t="n">
+        <v>50600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I916"/>
+  <dimension ref="A1:I917"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32486,6 +32486,41 @@
         <v>50600</v>
       </c>
     </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E917" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F917" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G917" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H917" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I917" t="n">
+        <v>5700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I917"/>
+  <dimension ref="A1:I918"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32521,6 +32521,41 @@
         <v>5700</v>
       </c>
     </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E918" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F918" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G918" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H918" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I918" t="n">
+        <v>214100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I918"/>
+  <dimension ref="A1:I920"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32556,6 +32556,76 @@
         <v>214100</v>
       </c>
     </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E919" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F919" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G919" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H919" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I919" t="n">
+        <v>316100</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E920" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F920" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G920" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H920" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I920" t="n">
+        <v>74100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I920"/>
+  <dimension ref="A1:I921"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32626,6 +32626,41 @@
         <v>74100</v>
       </c>
     </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E921" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F921" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G921" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H921" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I921" t="n">
+        <v>51500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I921"/>
+  <dimension ref="A1:I924"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32661,6 +32661,113 @@
         <v>51500</v>
       </c>
     </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E922" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F922" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G922" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H922" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I922" t="n">
+        <v>33500</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E923" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F923" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G923" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H923" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I923" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E924" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F924" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G924" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H924" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I924" t="n">
+        <v>65600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I924"/>
+  <dimension ref="A1:I925"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32768,6 +32768,41 @@
         <v>65600</v>
       </c>
     </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E925" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F925" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G925" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H925" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I925" t="n">
+        <v>15500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I925"/>
+  <dimension ref="A1:I926"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32803,6 +32803,41 @@
         <v>15500</v>
       </c>
     </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E926" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F926" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G926" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H926" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I926" t="n">
+        <v>49000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5276.xlsx
+++ b/data/5276.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I926"/>
+  <dimension ref="A1:I929"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32838,6 +32838,111 @@
         <v>49000</v>
       </c>
     </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E927" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F927" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G927" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H927" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I927" t="n">
+        <v>702500</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E928" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F928" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G928" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H928" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I928" t="n">
+        <v>110300</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>DANCO</t>
+        </is>
+      </c>
+      <c r="E929" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F929" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G929" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H929" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I929" t="n">
+        <v>33400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
